--- a/medicine/Enfance/Betsy_Haynes/Betsy_Haynes.xlsx
+++ b/medicine/Enfance/Betsy_Haynes/Betsy_Haynes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betsy Haynes (née en 1937) est une romancière américaine, auteure de près de 80 romans de littérature d'enfance et de jeunesse abordant les genres populaires du roman policier, du fantastique, de l'humour et du récit historique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est mariée à Jim Haynes. Ils ont deux enfants et vivent dans la section de la péninsule de Stewart de la ville texane de  The Colony, sur le lac de Lewisville, au nord de Dallas.
 Elle est connue pour ses séries jeunesse Taffy Sinclair, Les Super Cinq (Fabulous Five) et Froid dans le dos (Bone Chillers).
@@ -545,9 +559,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans de littérature d'enfance et de jeunesse
-Série Taffy Sinclair
-Against Taffy Sinclair Club (1976) Publié en français sous le titre Le Club anti-Taffy Sinclair, Paris, Hachette, coll. « Le Livre de poche. Clip » no 7370, 1988  (ISBN 2-01-013766-3)
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Taffy Sinclair</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Against Taffy Sinclair Club (1976) Publié en français sous le titre Le Club anti-Taffy Sinclair, Paris, Hachette, coll. « Le Livre de poche. Clip » no 7370, 1988  (ISBN 2-01-013766-3)
 Taffy Sinclair Strikes Again (1984) Publié en français sous le titre C'est bien moi la meilleure, Paris, Hachette, coll. « Le Livre de poche. Clip » no 7371, 1988  (ISBN 2-01-013767-1)
 Taffy Strikes Again (1984)
 Taffy Sinclair, Queen of the Soaps (1985) Publié en français sous le titre La Star, c'est moi !, Paris, Hachette, coll. « Le Livre de poche. Clip » no 7372, 1988  (ISBN 2-01-013768-X)
@@ -561,9 +583,47 @@
 Taffy Sinclair and the Melanie Makeover (1988)
 The Truth About Taffy Sinclair (1988)
 Taffy Sinclair Goes to Hollywood (1990)
-Nobody Likes Taffy Sinclair (1991)
-Série Les Super Cinq
-Seventh Grade Rumors (1988) Publié en français sous le titre Rumeurs au collège, Roubaix, Chantecler, 1991  (ISBN 2-8034-2309-X)
+Nobody Likes Taffy Sinclair (1991)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les Super Cinq</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Seventh Grade Rumors (1988) Publié en français sous le titre Rumeurs au collège, Roubaix, Chantecler, 1991  (ISBN 2-8034-2309-X)
 The Trouble With Flirting (1988) Publié en français sous le titre Les Soucis du flirt, Roubaix, Chantecler, 1991  (ISBN 2-8034-2310-3)
 The Popularity Trap (1988) Publié en français sous le titre La Campagne électorale, Roubaix, Chantecler, 1991  (ISBN 2-8034-2311-1)
 Her Honor, Katie Shannon (1988) Publié en français sous le titre Accusé, levez-vous !, Roubaix, Chantecler, 1991  (ISBN 2-8034-2312-X)
@@ -594,9 +654,47 @@
 Melanie Edwards, Super Kisser (1992)
 Sibling Rivalry (1992)
 The Fabulous Five Together Again (1992)
-Class Trip Calamity (1992)
-Série Froid dans le dos
-Beware the Shopping Mall (1994) Publié en français sous le titre La Galerie de tous les dangers, Paris, Pocket coll. « Pocket junior. Frissons » no 166, 1995 ; réédition, Paris, Pocket coll. « Jeunesse » no 539, 2000  (ISBN 2-266-08683-9)
+Class Trip Calamity (1992)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Froid dans le dos</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Beware the Shopping Mall (1994) Publié en français sous le titre La Galerie de tous les dangers, Paris, Pocket coll. « Pocket junior. Frissons » no 166, 1995 ; réédition, Paris, Pocket coll. « Jeunesse » no 539, 2000  (ISBN 2-266-08683-9)
 Back to School (1994) Publié en français sous le titre Panique à la cantine, Paris, Pocket jeunesse no 356, 1998  (ISBN 2-266-07949-2)
 Little Pet Shop of Horrors (1994) Publié en français sous le titre Dans la peau d'un chien, Paris, Pocket jeunesse no 355, 1998  (ISBN 2-266-07950-6)
 Frankenturkey (1994) Publié en français sous le titre Le Dindon de Frankenstein I, Paris, Pocket jeunesse no 357, 1998  (ISBN 2-266-08033-4)
@@ -622,9 +720,47 @@
 Romeo and Ghouliette (1998)
 The Shopping Spree (1994)
 Gobble-de-spook (1996)
-Toilet Terror (1996) (avec Elizabeth Winfrey) Publié en français sous le titre La Terreur des toilettes, Paris, Pocket jeunesse no 460, 1998  (ISBN 2-266-08039-3)
-Série Boy Talk
-Sneaking Around (1995)
+Toilet Terror (1996) (avec Elizabeth Winfrey) Publié en français sous le titre La Terreur des toilettes, Paris, Pocket jeunesse no 460, 1998  (ISBN 2-266-08039-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Boy Talk</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sneaking Around (1995)
 Dude in Distress (1995)
 Too Many Guys (1995)
 Double Dumped (1995)
@@ -632,13 +768,89 @@
 Too Blue (1996)
 Crazy in Love (1996)
 Faking It (1996)
-Heartbroken (1996)
-Série Santa Diairies
-A Newfangled Christmas (2008)
+Heartbroken (1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Santa Diairies</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A Newfangled Christmas (2008)
 North Pole Virus (2008)
-Santa's Stowaway (2010)
-Autres romans
-Cowslip (1973) Publié en français sous le titre Une nièce de l'oncle Tom, Paris, Hachette, coll. « Bibliothèque verte », 1976  (ISBN 2-01-002866-X) ; réédition, Paris, Hachette, coll. « Jeunesse », 1997  (ISBN 2-01-321622-X) ; réédition, Paris, LGF, coll. « Le Livre de poche. Jeunesse », 1980  (ISBN 2-253-02564-X) ; réédition, Paris, LGF, coll. « Le Livre de poche jeunesse. Historique », no 36, 2008  (ISBN 978-2-01-322537-3)
+Santa's Stowaway (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Betsy_Haynes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cowslip (1973) Publié en français sous le titre Une nièce de l'oncle Tom, Paris, Hachette, coll. « Bibliothèque verte », 1976  (ISBN 2-01-002866-X) ; réédition, Paris, Hachette, coll. « Jeunesse », 1997  (ISBN 2-01-321622-X) ; réédition, Paris, LGF, coll. « Le Livre de poche. Jeunesse », 1980  (ISBN 2-253-02564-X) ; réédition, Paris, LGF, coll. « Le Livre de poche jeunesse. Historique », no 36, 2008  (ISBN 978-2-01-322537-3)
 Spies on the Devil's Belt (1974) Publié en français sous le titre Les Baleinières de Long Island, Paris, Hachette, coll. « Bibliothèque verte », 1977  (ISBN 2-01-004048-1)
 Ghost of the Gravestone Hearth (1977)
 Shadows of Jeremy Pimm (1981)
